--- a/ToDo.xlsx
+++ b/ToDo.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="28515" windowHeight="12585"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>ToDoListe</t>
   </si>
@@ -62,7 +62,29 @@
     <t>Marci/Daniel</t>
   </si>
   <si>
-    <t>Marci/Daniel/Lucas</t>
+    <t>x</t>
+  </si>
+  <si>
+    <t>CSS überarbeiten</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Formulareintrag Koord. 
+Zeichenkodierung überprüfen, ° wird nicht angezeigt</t>
+  </si>
+  <si>
+    <t>Marci</t>
+  </si>
+  <si>
+    <t>Comet</t>
+  </si>
+  <si>
+    <t>Fehlersuche</t>
+  </si>
+  <si>
+    <t>Logbuch-Funktionalitäten</t>
   </si>
 </sst>
 </file>
@@ -134,30 +156,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Schlecht" xfId="1" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -185,56 +204,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -548,13 +517,14 @@
   <dimension ref="A2:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.5703125" customWidth="1"/>
     <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -563,13 +533,13 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -580,7 +550,9 @@
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -589,7 +561,9 @@
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -598,16 +572,20 @@
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -616,120 +594,144 @@
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="4"/>
+    </row>
+    <row r="13" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="4"/>
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="4"/>
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="4"/>
+      <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="4"/>
+      <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="4"/>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="4"/>
+      <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="4"/>
+      <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="4"/>
+      <c r="C21" s="5"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="4"/>
+      <c r="C22" s="5"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="4"/>
+      <c r="C23" s="5"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="4"/>
+      <c r="C24" s="5"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="4"/>
+      <c r="C25" s="5"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="4"/>
+      <c r="C26" s="5"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="4"/>
+      <c r="C27" s="5"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="4"/>
+      <c r="C28" s="5"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="4"/>
+      <c r="C29" s="5"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="4"/>
+      <c r="C30" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C5:C30">
@@ -743,16 +745,16 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="X,x">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="X,x">
       <formula>NOT(ISERROR(SEARCH("X,x",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="X;x">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="X;x">
       <formula>NOT(ISERROR(SEARCH("X;x",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text=" ">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text=" ">
       <formula>NOT(ISERROR(SEARCH(" ",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
